--- a/report/Part list.xlsx
+++ b/report/Part list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james_000\Github\solderingmachine\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Part</t>
   </si>
@@ -53,9 +53,6 @@
     <t>bed</t>
   </si>
   <si>
-    <t>Number required</t>
-  </si>
-  <si>
     <t>zsupport</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>prop savers</t>
   </si>
   <si>
-    <t>12v 30A psu</t>
-  </si>
-  <si>
     <t>RP</t>
   </si>
   <si>
@@ -153,13 +147,58 @@
   </si>
   <si>
     <t>rightangle</t>
+  </si>
+  <si>
+    <t>Inline mini fuse holder + 30A fuse</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/231070496002</t>
+  </si>
+  <si>
+    <t>20X4 Backlit HD44780 LCD</t>
+  </si>
+  <si>
+    <t>12mm Rotary Encoder</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/390605649309</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/281270914670</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>HC-05 Bluetooth Tranceiver</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/330913339056</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3 3.3V linear regulator</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/141128141176</t>
+  </si>
+  <si>
+    <t>12v 30A Power Supply</t>
+  </si>
+  <si>
+    <t>http://www.ebay.co.uk/itm/201009607598</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +221,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -200,10 +247,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -212,8 +260,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,16 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -511,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -536,7 +589,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -556,7 +609,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
@@ -576,7 +629,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
@@ -588,7 +641,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -596,7 +649,7 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
@@ -608,7 +661,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -616,7 +669,7 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
@@ -628,7 +681,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -636,7 +689,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
@@ -648,7 +701,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -656,7 +709,7 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
@@ -668,7 +721,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -676,7 +729,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
@@ -688,13 +741,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
@@ -706,18 +759,18 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -725,7 +778,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
@@ -733,7 +786,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -741,184 +794,308 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>8.56</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>1.84</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>23.58</v>
-      </c>
-    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>12.79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>